--- a/storage/sample.xlsx
+++ b/storage/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="d1" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,7 +170,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,7 +188,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -199,7 +199,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -210,7 +210,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -221,7 +221,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -248,8 +248,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,7 +267,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -289,7 +289,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -300,7 +300,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -327,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,10 +346,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>15</v>
@@ -357,10 +357,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>15</v>
@@ -368,10 +368,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>10</v>
@@ -379,10 +379,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>5</v>
@@ -390,10 +390,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>15</v>
@@ -401,10 +401,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>20</v>
@@ -412,10 +412,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>11</v>
@@ -423,10 +423,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>30</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>15</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>25</v>
